--- a/final report/precisionRate_rf.xlsx
+++ b/final report/precisionRate_rf.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20386"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FILE\中正\大數據與資料分析\期末報告資料處理\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amanda/Documents/final Project/uki-uki-diasuki/final report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5DAB3153-2C38-4738-A96C-FBB08491C279}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF94990D-7075-1B4E-AE36-33398B3AADBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="19780" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="precisionRate_rf" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,89 @@
     <sheet name="通訊" sheetId="5" r:id="rId5"/>
     <sheet name="統整" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">precisionRate_rf!$B$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">precisionRate_rf!$B$2:$B$41</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">precisionRate_rf!$B$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">precisionRate_rf!$B$2:$B$41</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">precisionRate_rf!$C$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">precisionRate_rf!$C$2:$C$41</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">precisionRate_rf!$G$1</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">precisionRate_rf!$G$2:$G$41</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">precisionRate_rf!$H$1</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">precisionRate_rf!$H$2:$H$41</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">precisionRate_rf!$I$1</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">precisionRate_rf!$I$2:$I$41</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">precisionRate_rf!$C$1</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">precisionRate_rf!$B$1</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">precisionRate_rf!$B$2:$B$41</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">precisionRate_rf!$C$1</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">precisionRate_rf!$C$2:$C$41</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">precisionRate_rf!$G$1</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">precisionRate_rf!$G$2:$G$41</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">precisionRate_rf!$H$1</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">precisionRate_rf!$H$2:$H$41</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">precisionRate_rf!$I$1</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">precisionRate_rf!$I$2:$I$41</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">precisionRate_rf!$C$2:$C$41</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">precisionRate_rf!$B$1</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">precisionRate_rf!$B$2:$B$41</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">precisionRate_rf!$C$1</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">precisionRate_rf!$C$2:$C$41</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">precisionRate_rf!$G$1</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">precisionRate_rf!$G$2:$G$41</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">precisionRate_rf!$H$1</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">precisionRate_rf!$H$2:$H$41</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">precisionRate_rf!$I$1</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">precisionRate_rf!$I$2:$I$41</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">precisionRate_rf!$G$1</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">precisionRate_rf!$B$1</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">precisionRate_rf!$B$2:$B$41</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">precisionRate_rf!$C$1</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">precisionRate_rf!$C$2:$C$41</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">precisionRate_rf!$G$1</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">precisionRate_rf!$G$2:$G$41</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">precisionRate_rf!$H$1</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">precisionRate_rf!$H$2:$H$41</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">precisionRate_rf!$I$1</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">precisionRate_rf!$I$2:$I$41</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">precisionRate_rf!$G$2:$G$41</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">precisionRate_rf!$B$1</definedName>
+    <definedName name="_xlchart.v1.51" hidden="1">precisionRate_rf!$B$2:$B$41</definedName>
+    <definedName name="_xlchart.v1.52" hidden="1">precisionRate_rf!$C$1</definedName>
+    <definedName name="_xlchart.v1.53" hidden="1">precisionRate_rf!$C$2:$C$41</definedName>
+    <definedName name="_xlchart.v1.54" hidden="1">precisionRate_rf!$G$1</definedName>
+    <definedName name="_xlchart.v1.55" hidden="1">precisionRate_rf!$G$2:$G$41</definedName>
+    <definedName name="_xlchart.v1.56" hidden="1">precisionRate_rf!$H$1</definedName>
+    <definedName name="_xlchart.v1.57" hidden="1">precisionRate_rf!$H$2:$H$41</definedName>
+    <definedName name="_xlchart.v1.58" hidden="1">precisionRate_rf!$I$2:$I$41</definedName>
+    <definedName name="_xlchart.v1.59" hidden="1">precisionRate_rf!$B$1</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">precisionRate_rf!$H$1</definedName>
+    <definedName name="_xlchart.v1.60" hidden="1">precisionRate_rf!$B$2:$B$41</definedName>
+    <definedName name="_xlchart.v1.61" hidden="1">precisionRate_rf!$C$1</definedName>
+    <definedName name="_xlchart.v1.62" hidden="1">precisionRate_rf!$C$2:$C$41</definedName>
+    <definedName name="_xlchart.v1.63" hidden="1">precisionRate_rf!$G$1</definedName>
+    <definedName name="_xlchart.v1.64" hidden="1">precisionRate_rf!$G$2:$G$41</definedName>
+    <definedName name="_xlchart.v1.65" hidden="1">precisionRate_rf!$H$1</definedName>
+    <definedName name="_xlchart.v1.66" hidden="1">precisionRate_rf!$H$2:$H$41</definedName>
+    <definedName name="_xlchart.v1.67" hidden="1">precisionRate_rf!$I$2:$I$41</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">precisionRate_rf!$H$2:$H$41</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">precisionRate_rf!$I$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">precisionRate_rf!$I$2:$I$41</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -184,12 +266,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -197,7 +279,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -205,7 +287,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="新細明體"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="major"/>
@@ -214,7 +296,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -223,7 +305,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -232,7 +314,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -240,7 +322,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF006100"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -248,7 +330,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF9C0006"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -256,7 +338,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF9C5700"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -264,7 +346,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF3F3F76"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -273,7 +355,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF3F3F3F"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -282,7 +364,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -290,7 +372,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -299,7 +381,7 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -307,7 +389,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -316,7 +398,7 @@
       <i/>
       <sz val="12"/>
       <color rgb="FF7F7F7F"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -325,7 +407,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -333,14 +415,14 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -348,7 +430,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF1E1E1E"/>
-      <name val="新細明體"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="major"/>
@@ -826,9 +908,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -844,53 +923,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 輔色1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 輔色2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 輔色3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 輔色4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 輔色5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 輔色6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 輔色1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 輔色2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 輔色3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 輔色4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 輔色5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 輔色6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 輔色1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 輔色2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 輔色3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 輔色4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 輔色5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 輔色6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="中等" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="合計" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="計算方式" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="連結的儲存格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="備註" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="說明文字" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="輔色1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="輔色2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="輔色3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="輔色4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="輔色5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="輔色6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="標題" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="標題 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="標題 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="標題 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="標題 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="輸入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="輸出" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="檢查儲存格" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="壞" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="警告文字" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -905,8 +987,1605 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.1</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.3</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.5</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.7</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.9</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Random Forest Classfier</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Random Forest Classfier</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{889E740F-DFC9-2C49-887F-4A1009FC5D69}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:v>precision_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{7DD3FBBB-BC73-AD47-BFF2-0BF2447C6D76}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:v>precision_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{B7838ADE-79E2-2C45-86DD-0FA69F4B73B9}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:v>recall_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{C54A250B-074B-6F45-98B5-84185D27C1E4}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:v>recall_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{7DFE72A2-7910-CF49-978F-B2D8070937AE}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>accuracy</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1.5"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling min="0.5"/>
+        <cx:majorGridlines/>
+        <cx:majorTickMarks type="out"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="r" align="ctr" overlay="0">
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:sysClr>
+            </a:solidFill>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+          </a:endParaRPr>
+        </a:p>
+      </cx:txPr>
+    </cx:legend>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.60</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.62</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.64</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.66</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.67</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Random Forest Classfier</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Random Forest Classfier</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{889E740F-DFC9-2C49-887F-4A1009FC5D69}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.59</cx:f>
+              <cx:v>precision_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{7DD3FBBB-BC73-AD47-BFF2-0BF2447C6D76}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.61</cx:f>
+              <cx:v>precision_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{B7838ADE-79E2-2C45-86DD-0FA69F4B73B9}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.63</cx:f>
+              <cx:v>recall_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{C54A250B-074B-6F45-98B5-84185D27C1E4}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.65</cx:f>
+              <cx:v>recall_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{7DFE72A2-7910-CF49-978F-B2D8070937AE}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f/>
+              <cx:v>accuracy</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1.5"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling min="0.5"/>
+        <cx:majorGridlines/>
+        <cx:majorTickMarks type="out"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="r" align="ctr" overlay="0">
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:sysClr>
+            </a:solidFill>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+          </a:endParaRPr>
+        </a:p>
+      </cx:txPr>
+    </cx:legend>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD9BCB98-0F1A-E043-7CE4-9CB29F1A9562}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4210050" y="9436100"/>
+              <a:ext cx="5149850" cy="3175000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B46C860-EB26-C64A-A41E-68E2724A69F3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5384800" y="1955800"/>
+              <a:ext cx="5149850" cy="3175000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1201,16 +2880,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X47"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:X47"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I1" activeCellId="4" sqref="B1:B41 C1:C41 G1:G41 H1:H41 I1:I41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1278,7 +2957,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1210</v>
       </c>
@@ -1346,7 +3025,7 @@
         <v>0.73854154614624801</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1231</v>
       </c>
@@ -1414,7 +3093,7 @@
         <v>0.48697852617807003</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2344</v>
       </c>
@@ -1482,7 +3161,7 @@
         <v>0.673568977544175</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2449</v>
       </c>
@@ -1550,7 +3229,7 @@
         <v>0.76219833478156096</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2603</v>
       </c>
@@ -1618,7 +3297,7 @@
         <v>0.70818596345067397</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2633</v>
       </c>
@@ -1686,7 +3365,7 @@
         <v>0.52555604753635998</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3596</v>
       </c>
@@ -1754,7 +3433,7 @@
         <v>0.70373736451798397</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1215</v>
       </c>
@@ -1822,7 +3501,7 @@
         <v>0.64412883865288395</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1232</v>
       </c>
@@ -1890,7 +3569,7 @@
         <v>0.64306736949923904</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2345</v>
       </c>
@@ -1958,7 +3637,7 @@
         <v>0.74525785532306699</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2454</v>
       </c>
@@ -2026,7 +3705,7 @@
         <v>0.60479802487559797</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2607</v>
       </c>
@@ -2094,7 +3773,7 @@
         <v>0.70185437273496498</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2634</v>
       </c>
@@ -2162,7 +3841,7 @@
         <v>0.64793797881779103</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3682</v>
       </c>
@@ -2230,7 +3909,7 @@
         <v>0.65919189978844595</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1216</v>
       </c>
@@ -2298,7 +3977,7 @@
         <v>0.55829877679888595</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1434</v>
       </c>
@@ -2366,7 +4045,7 @@
         <v>0.70599258655024799</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2379</v>
       </c>
@@ -2434,7 +4113,7 @@
         <v>0.73942833288102605</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2455</v>
       </c>
@@ -2502,7 +4181,7 @@
         <v>0.73504050173044899</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2609</v>
       </c>
@@ -2570,7 +4249,7 @@
         <v>0.74706093321013001</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2637</v>
       </c>
@@ -2638,7 +4317,7 @@
         <v>0.67626906318911795</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>4904</v>
       </c>
@@ -2706,7 +4385,7 @@
         <v>0.48880097302019998</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1218</v>
       </c>
@@ -2774,7 +4453,7 @@
         <v>0.71449526513311901</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1702</v>
       </c>
@@ -2842,7 +4521,7 @@
         <v>0.70456346589649999</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2408</v>
       </c>
@@ -2910,7 +4589,7 @@
         <v>0.775710446018683</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2459</v>
       </c>
@@ -2978,7 +4657,7 @@
         <v>0.72335033559472905</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2610</v>
       </c>
@@ -3046,7 +4725,7 @@
         <v>0.69816005768796996</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>3034</v>
       </c>
@@ -3114,7 +4793,7 @@
         <v>0.75392789138939498</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>5388</v>
       </c>
@@ -3182,7 +4861,7 @@
         <v>0.78471123414366395</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1227</v>
       </c>
@@ -3250,7 +4929,7 @@
         <v>0.61642376600017001</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2330</v>
       </c>
@@ -3318,7 +4997,7 @@
         <v>0.65313688487580002</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2412</v>
       </c>
@@ -3386,7 +5065,7 @@
         <v>0.43666969334105898</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2468</v>
       </c>
@@ -3454,7 +5133,7 @@
         <v>0.59946502217191</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2615</v>
       </c>
@@ -3522,7 +5201,7 @@
         <v>0.70192203708020795</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>3035</v>
       </c>
@@ -3590,7 +5269,7 @@
         <v>0.70926371724684001</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1229</v>
       </c>
@@ -3658,7 +5337,7 @@
         <v>0.677917403738173</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2337</v>
       </c>
@@ -3726,7 +5405,7 @@
         <v>0.63877943081213095</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2439</v>
       </c>
@@ -3794,7 +5473,7 @@
         <v>0.60997834111660298</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2498</v>
       </c>
@@ -3862,7 +5541,7 @@
         <v>0.60525904688785903</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2618</v>
       </c>
@@ -3930,7 +5609,7 @@
         <v>0.61585827168128204</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>3045</v>
       </c>
@@ -3998,7 +5677,7 @@
         <v>0.53095469151563401</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>22</v>
       </c>
@@ -4095,7 +5774,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>23</v>
       </c>
@@ -4192,7 +5871,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>24</v>
       </c>
@@ -4289,7 +5968,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>25</v>
       </c>
@@ -4386,7 +6065,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>26</v>
       </c>
@@ -4483,7 +6162,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>27</v>
       </c>
@@ -4583,20 +6262,21 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:X17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="str">
         <f>precisionRate_rf!A$1</f>
         <v>StockName</v>
@@ -4694,7 +6374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2">
         <f>precisionRate_rf!A$31</f>
         <v>2330</v>
@@ -4792,7 +6472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>precisionRate_rf!A$12</f>
         <v>2454</v>
@@ -4890,7 +6570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4">
         <f>precisionRate_rf!A$28</f>
         <v>3034</v>
@@ -4988,7 +6668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5">
         <f>precisionRate_rf!A$18</f>
         <v>2379</v>
@@ -5086,7 +6766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6">
         <f>precisionRate_rf!A$25</f>
         <v>2408</v>
@@ -5184,7 +6864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7">
         <f>precisionRate_rf!A$4</f>
         <v>2344</v>
@@ -5282,7 +6962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8">
         <f>precisionRate_rf!A$37</f>
         <v>2337</v>
@@ -5380,7 +7060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9">
         <f>precisionRate_rf!A$35</f>
         <v>3035</v>
@@ -5478,7 +7158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10">
         <f>precisionRate_rf!A$5</f>
         <v>2449</v>
@@ -5576,7 +7256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11">
         <f>precisionRate_rf!A$33</f>
         <v>2468</v>
@@ -5674,7 +7354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -5771,7 +7451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
@@ -5868,7 +7548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
@@ -5965,7 +7645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
@@ -6062,7 +7742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
@@ -6159,7 +7839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
@@ -6263,16 +7943,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:X17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="str">
         <f>precisionRate_rf!A$1</f>
         <v>StockName</v>
@@ -6370,7 +8050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2">
         <f>precisionRate_rf!A$16</f>
         <v>1216</v>
@@ -6468,7 +8148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>precisionRate_rf!A$36</f>
         <v>1229</v>
@@ -6566,7 +8246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4">
         <f>precisionRate_rf!A$17</f>
         <v>1434</v>
@@ -6664,7 +8344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5">
         <f>precisionRate_rf!A$30</f>
         <v>1227</v>
@@ -6762,7 +8442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6">
         <f>precisionRate_rf!A$2</f>
         <v>1210</v>
@@ -6860,7 +8540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7">
         <f>precisionRate_rf!A$10</f>
         <v>1232</v>
@@ -6958,7 +8638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8">
         <f>precisionRate_rf!A$9</f>
         <v>1215</v>
@@ -7056,7 +8736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9">
         <f>precisionRate_rf!A$3</f>
         <v>1231</v>
@@ -7154,7 +8834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10">
         <f>precisionRate_rf!A$23</f>
         <v>1218</v>
@@ -7252,7 +8932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11">
         <f>precisionRate_rf!A$24</f>
         <v>1702</v>
@@ -7350,7 +9030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -7447,7 +9127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
@@ -7544,7 +9224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
@@ -7641,7 +9321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
@@ -7738,7 +9418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
@@ -7835,7 +9515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
@@ -7939,16 +9619,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:X17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="str">
         <f>precisionRate_rf!A$1</f>
         <v>StockName</v>
@@ -8046,7 +9726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2">
         <f>precisionRate_rf!A$6</f>
         <v>2603</v>
@@ -8144,7 +9824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>precisionRate_rf!A$20</f>
         <v>2609</v>
@@ -8242,7 +9922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4">
         <f>precisionRate_rf!A$34</f>
         <v>2615</v>
@@ -8340,7 +10020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5">
         <f>precisionRate_rf!A$40</f>
         <v>2618</v>
@@ -8438,7 +10118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6">
         <f>precisionRate_rf!A$27</f>
         <v>2610</v>
@@ -8536,7 +10216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7">
         <f>precisionRate_rf!A$21</f>
         <v>2637</v>
@@ -8634,7 +10314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8">
         <f>precisionRate_rf!A$7</f>
         <v>2633</v>
@@ -8732,7 +10412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9">
         <f>precisionRate_rf!A$26</f>
         <v>2459</v>
@@ -8830,7 +10510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10">
         <f>precisionRate_rf!A$13</f>
         <v>2607</v>
@@ -8928,7 +10608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11">
         <f>precisionRate_rf!A$14</f>
         <v>2634</v>
@@ -9026,7 +10706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -9123,7 +10803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
@@ -9220,7 +10900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
@@ -9317,7 +10997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
@@ -9414,7 +11094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
@@ -9511,7 +11191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
@@ -9615,16 +11295,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:X17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="str">
         <f>precisionRate_rf!A$1</f>
         <v>StockName</v>
@@ -9722,7 +11402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2">
         <f>precisionRate_rf!A$32</f>
         <v>2412</v>
@@ -9820,7 +11500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>precisionRate_rf!A$41</f>
         <v>3045</v>
@@ -9918,7 +11598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4">
         <f>precisionRate_rf!A$22</f>
         <v>4904</v>
@@ -10016,7 +11696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5">
         <f>precisionRate_rf!A$11</f>
         <v>2345</v>
@@ -10114,7 +11794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6">
         <f>precisionRate_rf!A$39</f>
         <v>2498</v>
@@ -10212,7 +11892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7">
         <f>precisionRate_rf!A$8</f>
         <v>3596</v>
@@ -10310,7 +11990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8">
         <f>precisionRate_rf!A$15</f>
         <v>3682</v>
@@ -10408,7 +12088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9">
         <f>precisionRate_rf!A$29</f>
         <v>5388</v>
@@ -10506,7 +12186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10">
         <f>precisionRate_rf!A$19</f>
         <v>2455</v>
@@ -10604,7 +12284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11">
         <f>precisionRate_rf!A$38</f>
         <v>2439</v>
@@ -10702,7 +12382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -10799,7 +12479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
@@ -10896,7 +12576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
@@ -10993,7 +12673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
@@ -11090,7 +12770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
@@ -11187,7 +12867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
@@ -11291,428 +12971,428 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F30"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="4">
         <f>precisionRate_rf!B42</f>
         <v>0.65432098765432101</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="4">
         <f>precisionRate_rf!C42</f>
         <v>0.69127516778523401</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="4">
         <f>precisionRate_rf!G42</f>
         <v>0.55284552845528401</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="4">
         <f>precisionRate_rf!H42</f>
         <v>0.69230769230769196</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="4">
         <f>precisionRate_rf!E42</f>
         <v>0.73206521739130404</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" s="4">
         <f>precisionRate_rf!V42</f>
         <v>0.43666969334105898</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <f>半導體!$B$12</f>
         <v>0.7109375</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <f>半導體!$B$13</f>
         <v>0.76922824732804373</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <f>半導體!$B$14</f>
         <v>0.78409560545529655</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <f>半導體!$B$15</f>
         <v>0.82795653638813949</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <f>半導體!$B$16</f>
         <v>0.86805555555555503</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="4">
         <f>precisionRate_rf!B43</f>
         <v>0.75999000999000976</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="4">
         <f>precisionRate_rf!C43</f>
         <v>0.8365418894830654</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="4">
         <f>precisionRate_rf!G43</f>
         <v>0.81825469537333873</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="4">
         <f>precisionRate_rf!H43</f>
         <v>0.79517243692968242</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="4">
         <f>precisionRate_rf!E43</f>
         <v>0.80216276867665126</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" s="4">
         <f>precisionRate_rf!V43</f>
         <v>0.61438828904011222</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <f>食品!$B$12</f>
         <v>0.66666666666666596</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <f>食品!$B$13</f>
         <v>0.73877419354838703</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <f>食品!$B$14</f>
         <v>0.80453108535300255</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <f>食品!$B$15</f>
         <v>0.83412986156888524</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <f>食品!$B$16</f>
         <v>0.91095890410958902</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <f>precisionRate_rf!B44</f>
         <v>0.78184541143189901</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="4">
         <f>precisionRate_rf!C44</f>
         <v>0.87607923687508704</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="4">
         <f>precisionRate_rf!G44</f>
         <v>0.84189004997728256</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="4">
         <f>precisionRate_rf!H44</f>
         <v>0.84755530767800646</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="4">
         <f>precisionRate_rf!E44</f>
         <v>0.83539123866329701</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="4">
         <f>precisionRate_rf!V44</f>
         <v>0.67709323346364547</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <f>航運!$B$12</f>
         <v>0.65432098765432101</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <f>航運!$B$13</f>
         <v>0.73295454545454519</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <f>航運!$B$14</f>
         <v>0.7651768521333735</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <f>航運!$B$15</f>
         <v>0.77861232988770657</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <f>航運!$B$16</f>
         <v>0.85039370078740095</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <f>precisionRate_rf!B45</f>
         <v>0.83867870174764669</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="4">
         <f>precisionRate_rf!C45</f>
         <v>0.90970933828076672</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="4">
         <f>precisionRate_rf!G45</f>
         <v>0.88873106060606033</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="4">
         <f>precisionRate_rf!H45</f>
         <v>0.88349282296650644</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="4">
         <f>precisionRate_rf!E45</f>
         <v>0.86047856298310477</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="4">
         <f>precisionRate_rf!V45</f>
         <v>0.71670903274852149</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <f>通訊!$B$12</f>
         <v>0.73913043478260798</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <f>通訊!$B$13</f>
         <v>0.78167900823695757</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <f>通訊!$B$14</f>
         <v>0.83279830405814659</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <f>通訊!$B$15</f>
         <v>0.86612121212121196</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <f>通訊!$B$16</f>
         <v>0.92307692307692302</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <f>precisionRate_rf!B46</f>
         <v>0.92307692307692302</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="4">
         <f>precisionRate_rf!C46</f>
         <v>0.95744680851063801</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="4">
         <f>precisionRate_rf!G46</f>
         <v>0.94915254237288105</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="4">
         <f>precisionRate_rf!H46</f>
         <v>0.934640522875817</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="4">
         <f>precisionRate_rf!E46</f>
         <v>0.89487179487179402</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="4">
         <f>precisionRate_rf!V46</f>
         <v>0.78471123414366395</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <f>半導體!$C$12</f>
         <v>0.80924855491329395</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <f>半導體!$C$13</f>
         <v>0.88066575182967322</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <f>半導體!$C$14</f>
         <v>0.89254679144385007</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <f>半導體!$C$15</f>
         <v>0.91519125683060021</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <f>半導體!$C$16</f>
         <v>0.93121693121693105</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <f>食品!$C$12</f>
         <v>0.69127516778523401</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <f>食品!$C$13</f>
         <v>0.83051948051947999</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <f>食品!$C$14</f>
         <v>0.85373383395911495</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <f>食品!$C$15</f>
         <v>0.89397338848134811</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <f>食品!$C$16</f>
         <v>0.94512195121951204</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <f>航運!$C$12</f>
         <v>0.75862068965517204</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <f>航運!$C$13</f>
         <v>0.89528985507246372</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <f>航運!$C$14</f>
         <v>0.91836124401913843</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <f>航運!$C$15</f>
         <v>0.94407894736842046</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <f>航運!$C$16</f>
         <v>0.95744680851063801</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <f>通訊!$C$12</f>
         <v>0.72499999999999998</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <f>通訊!$C$13</f>
         <v>0.76121804421667305</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <f>通訊!$C$14</f>
         <v>0.84383256848838806</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <f>通訊!$C$15</f>
         <v>0.86065476190476176</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <f>通訊!$C$16</f>
         <v>0.86666666666666603</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>32</v>
       </c>
@@ -11722,125 +13402,125 @@
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4" t="s">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <f>半導體!$G$12</f>
         <v>0.74615384615384595</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <f>半導體!$G$13</f>
         <v>0.82327863577863525</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <f>半導體!$G$14</f>
         <v>0.84991039426523252</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <f>半導體!$G$15</f>
         <v>0.8696532846715328</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <f>半導體!$G$16</f>
         <v>0.89928057553956797</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <f>食品!$G$12</f>
         <v>0.64646464646464596</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <f>食品!$G$13</f>
         <v>0.79998073959938321</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <f>食品!$G$14</f>
         <v>0.82773133976924851</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <f>食品!$G$15</f>
         <v>0.87767595307917845</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="5">
         <f>食品!$G$16</f>
         <v>0.91089108910891003</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <f>航運!$G$12</f>
         <v>0.76842105263157801</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <f>航運!$G$13</f>
         <v>0.84120972903776348</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <f>航運!$G$14</f>
         <v>0.89972389558232901</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <f>航運!$G$15</f>
         <v>0.90781249999999969</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="5">
         <f>航運!$G$16</f>
         <v>0.94915254237288105</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="7">
         <f>通訊!$G$12</f>
         <v>0.55284552845528401</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="7">
         <f>通訊!$G$13</f>
         <v>0.72243589743589676</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="7">
         <f>通訊!$G$14</f>
         <v>0.83486170318231356</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="7">
         <f>通訊!$G$15</f>
         <v>0.8463041019841675</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="7">
         <f>通訊!$G$16</f>
         <v>0.90677966101694896</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>33</v>
       </c>
@@ -11850,125 +13530,125 @@
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <f>半導體!$H$12</f>
         <v>0.77070063694267499</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <f>半導體!$H$13</f>
         <v>0.81130599472990694</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <f>半導體!$H$14</f>
         <v>0.86534011220196305</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <f>半導體!$H$15</f>
         <v>0.89518982626972021</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="5">
         <f>半導體!$H$16</f>
         <v>0.91256830601092898</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <f>食品!$H$12</f>
         <v>0.734177215189873</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <f>食品!$H$13</f>
         <v>0.82560396520051271</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <f>食品!$H$14</f>
         <v>0.83711734693877549</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <f>食品!$H$15</f>
         <v>0.85296078954387822</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="5">
         <f>食品!$H$16</f>
         <v>0.88793103448275801</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <f>航運!$H$12</f>
         <v>0.69230769230769196</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <f>航運!$H$13</f>
         <v>0.74737899702952948</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="5">
         <f>航運!$H$14</f>
         <v>0.80626623376623296</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="5">
         <f>航運!$H$15</f>
         <v>0.86656891495601096</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="5">
         <f>航運!$H$16</f>
         <v>0.92500000000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="7">
         <f>通訊!$H$12</f>
         <v>0.71428571428571397</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="7">
         <f>通訊!$H$13</f>
         <v>0.77821897927920647</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="7">
         <f>通訊!$H$14</f>
         <v>0.86109284827233501</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="7">
         <f>通訊!$H$15</f>
         <v>0.89422527158376197</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="7">
         <f>通訊!$H$16</f>
         <v>0.934640522875817</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
         <v>34</v>
       </c>
@@ -11978,120 +13658,120 @@
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="5">
         <f>半導體!$D$12</f>
         <v>0.80338983050847401</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="5">
         <f>半導體!$D$13</f>
         <v>0.81817710134901356</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="5">
         <f>半導體!$D$14</f>
         <v>0.85740804796494796</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="5">
         <f>半導體!$D$15</f>
         <v>0.88305084745762674</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="5">
         <f>半導體!$D$16</f>
         <v>0.89152542372881305</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="5">
         <f>食品!$D$12</f>
         <v>0.77288135593220297</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="5">
         <f>食品!$D$13</f>
         <v>0.80593220338983051</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="5">
         <f>食品!$D$14</f>
         <v>0.83220338983050801</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="5">
         <f>食品!$D$15</f>
         <v>0.85264360502111347</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="5">
         <f>食品!$D$16</f>
         <v>0.86779661016949095</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="5">
         <f>航運!$D$12</f>
         <v>0.76377952755905498</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="5">
         <f>航運!$D$13</f>
         <v>0.82182203389830444</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="5">
         <f>航運!$D$14</f>
         <v>0.8428464606181455</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="5">
         <f>航運!$D$15</f>
         <v>0.86236596333448579</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="5">
         <f>航運!$D$16</f>
         <v>0.88095238095238004</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="5">
         <f>通訊!$D$12</f>
         <v>0.72945205479452002</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="5">
         <f>通訊!$D$13</f>
         <v>0.77534246575342403</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="5">
         <f>通訊!$D$14</f>
         <v>0.8289375775113681</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="5">
         <f>通訊!$D$15</f>
         <v>0.8652834599649325</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="5">
         <f>通訊!$D$16</f>
         <v>0.89152542372881305</v>
       </c>
@@ -12106,5 +13786,6 @@
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/final report/precisionRate_rf.xlsx
+++ b/final report/precisionRate_rf.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amanda/Documents/final Project/uki-uki-diasuki/final report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF94990D-7075-1B4E-AE36-33398B3AADBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6EB6C6-0F1C-B541-8BED-C1227E9EE624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="19780" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="19780" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="precisionRate_rf" sheetId="1" r:id="rId1"/>
@@ -23,72 +23,102 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">precisionRate_rf!$B$1</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">precisionRate_rf!$B$2:$B$41</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">precisionRate_rf!$B$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">precisionRate_rf!$B$2:$B$41</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">precisionRate_rf!$C$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">precisionRate_rf!$C$2:$C$41</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">precisionRate_rf!$G$1</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">precisionRate_rf!$G$2:$G$41</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">precisionRate_rf!$H$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">precisionRate_rf!$H$2:$H$41</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">precisionRate_rf!$I$1</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">precisionRate_rf!$I$2:$I$41</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">半導體!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">半導體!$C$1</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">半導體!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">半導體!$G$1</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">半導體!$G$2:$G$11</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">半導體!$H$1</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">半導體!$H$2:$H$11</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">半導體!$I$1</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">半導體!$I$2:$I$11</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">半導體!$B$1</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">precisionRate_rf!$C$1</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">precisionRate_rf!$B$1</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">precisionRate_rf!$B$2:$B$41</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">precisionRate_rf!$C$1</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">precisionRate_rf!$C$2:$C$41</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">precisionRate_rf!$G$1</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">precisionRate_rf!$G$2:$G$41</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">precisionRate_rf!$H$1</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">precisionRate_rf!$H$2:$H$41</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">precisionRate_rf!$I$1</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">precisionRate_rf!$I$2:$I$41</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">半導體!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">半導體!$C$1</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">半導體!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">半導體!$G$1</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">半導體!$G$2:$G$11</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">半導體!$H$1</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">半導體!$H$2:$H$11</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">半導體!$I$1</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">半導體!$I$2:$I$11</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">半導體!$B$1</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">precisionRate_rf!$C$2:$C$41</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">precisionRate_rf!$B$1</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">precisionRate_rf!$B$2:$B$41</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">precisionRate_rf!$C$1</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">precisionRate_rf!$C$2:$C$41</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">precisionRate_rf!$G$1</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">precisionRate_rf!$G$2:$G$41</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">precisionRate_rf!$H$1</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">precisionRate_rf!$H$2:$H$41</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">precisionRate_rf!$I$1</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">precisionRate_rf!$I$2:$I$41</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">半導體!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">半導體!$C$1</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">半導體!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">半導體!$G$1</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">半導體!$G$2:$G$11</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">半導體!$H$1</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">半導體!$H$2:$H$11</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">半導體!$I$1</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">半導體!$I$2:$I$11</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">半導體!$B$1</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">precisionRate_rf!$G$1</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">precisionRate_rf!$B$1</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">precisionRate_rf!$B$2:$B$41</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">precisionRate_rf!$C$1</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">precisionRate_rf!$C$2:$C$41</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">precisionRate_rf!$G$1</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">precisionRate_rf!$G$2:$G$41</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">precisionRate_rf!$H$1</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">precisionRate_rf!$H$2:$H$41</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">precisionRate_rf!$I$1</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">precisionRate_rf!$I$2:$I$41</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">半導體!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">半導體!$C$1</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">半導體!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">半導體!$G$1</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">半導體!$G$2:$G$11</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">半導體!$H$1</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">半導體!$H$2:$H$11</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">半導體!$I$1</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">半導體!$I$2:$I$11</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">食品!$B$1</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">precisionRate_rf!$G$2:$G$41</definedName>
-    <definedName name="_xlchart.v1.50" hidden="1">precisionRate_rf!$B$1</definedName>
-    <definedName name="_xlchart.v1.51" hidden="1">precisionRate_rf!$B$2:$B$41</definedName>
-    <definedName name="_xlchart.v1.52" hidden="1">precisionRate_rf!$C$1</definedName>
-    <definedName name="_xlchart.v1.53" hidden="1">precisionRate_rf!$C$2:$C$41</definedName>
-    <definedName name="_xlchart.v1.54" hidden="1">precisionRate_rf!$G$1</definedName>
-    <definedName name="_xlchart.v1.55" hidden="1">precisionRate_rf!$G$2:$G$41</definedName>
-    <definedName name="_xlchart.v1.56" hidden="1">precisionRate_rf!$H$1</definedName>
-    <definedName name="_xlchart.v1.57" hidden="1">precisionRate_rf!$H$2:$H$41</definedName>
-    <definedName name="_xlchart.v1.58" hidden="1">precisionRate_rf!$I$2:$I$41</definedName>
-    <definedName name="_xlchart.v1.59" hidden="1">precisionRate_rf!$B$1</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">食品!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.51" hidden="1">食品!$C$1</definedName>
+    <definedName name="_xlchart.v1.52" hidden="1">食品!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.53" hidden="1">食品!$G$1</definedName>
+    <definedName name="_xlchart.v1.54" hidden="1">食品!$G$2:$G$11</definedName>
+    <definedName name="_xlchart.v1.55" hidden="1">食品!$H$1</definedName>
+    <definedName name="_xlchart.v1.56" hidden="1">食品!$H$2:$H$11</definedName>
+    <definedName name="_xlchart.v1.57" hidden="1">食品!$I$1</definedName>
+    <definedName name="_xlchart.v1.58" hidden="1">食品!$I$2:$I$11</definedName>
+    <definedName name="_xlchart.v1.59" hidden="1">航運!$B$1</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">precisionRate_rf!$H$1</definedName>
-    <definedName name="_xlchart.v1.60" hidden="1">precisionRate_rf!$B$2:$B$41</definedName>
-    <definedName name="_xlchart.v1.61" hidden="1">precisionRate_rf!$C$1</definedName>
-    <definedName name="_xlchart.v1.62" hidden="1">precisionRate_rf!$C$2:$C$41</definedName>
-    <definedName name="_xlchart.v1.63" hidden="1">precisionRate_rf!$G$1</definedName>
-    <definedName name="_xlchart.v1.64" hidden="1">precisionRate_rf!$G$2:$G$41</definedName>
-    <definedName name="_xlchart.v1.65" hidden="1">precisionRate_rf!$H$1</definedName>
-    <definedName name="_xlchart.v1.66" hidden="1">precisionRate_rf!$H$2:$H$41</definedName>
-    <definedName name="_xlchart.v1.67" hidden="1">precisionRate_rf!$I$2:$I$41</definedName>
+    <definedName name="_xlchart.v1.60" hidden="1">航運!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.61" hidden="1">航運!$C$1</definedName>
+    <definedName name="_xlchart.v1.62" hidden="1">航運!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.63" hidden="1">航運!$G$1</definedName>
+    <definedName name="_xlchart.v1.64" hidden="1">航運!$G$2:$G$11</definedName>
+    <definedName name="_xlchart.v1.65" hidden="1">航運!$H$1</definedName>
+    <definedName name="_xlchart.v1.66" hidden="1">航運!$H$2:$H$11</definedName>
+    <definedName name="_xlchart.v1.67" hidden="1">航運!$I$1</definedName>
+    <definedName name="_xlchart.v1.68" hidden="1">航運!$I$2:$I$11</definedName>
+    <definedName name="_xlchart.v1.69" hidden="1">通訊!$B$1</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">precisionRate_rf!$H$2:$H$41</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">precisionRate_rf!$I$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">precisionRate_rf!$I$2:$I$41</definedName>
+    <definedName name="_xlchart.v1.70" hidden="1">通訊!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.71" hidden="1">通訊!$C$1</definedName>
+    <definedName name="_xlchart.v1.72" hidden="1">通訊!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.73" hidden="1">通訊!$G$1</definedName>
+    <definedName name="_xlchart.v1.74" hidden="1">通訊!$G$2:$G$11</definedName>
+    <definedName name="_xlchart.v1.75" hidden="1">通訊!$H$1</definedName>
+    <definedName name="_xlchart.v1.76" hidden="1">通訊!$H$2:$H$11</definedName>
+    <definedName name="_xlchart.v1.77" hidden="1">通訊!$I$1</definedName>
+    <definedName name="_xlchart.v1.78" hidden="1">通訊!$I$2:$I$11</definedName>
+    <definedName name="_xlchart.v1.79" hidden="1">通訊!$B$1</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">precisionRate_rf!$I$2:$I$41</definedName>
+    <definedName name="_xlchart.v1.80" hidden="1">通訊!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.81" hidden="1">通訊!$C$1</definedName>
+    <definedName name="_xlchart.v1.82" hidden="1">通訊!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.83" hidden="1">通訊!$G$1</definedName>
+    <definedName name="_xlchart.v1.84" hidden="1">通訊!$G$2:$G$11</definedName>
+    <definedName name="_xlchart.v1.85" hidden="1">通訊!$H$1</definedName>
+    <definedName name="_xlchart.v1.86" hidden="1">通訊!$H$2:$H$11</definedName>
+    <definedName name="_xlchart.v1.87" hidden="1">通訊!$I$1</definedName>
+    <definedName name="_xlchart.v1.88" hidden="1">通訊!$I$2:$I$11</definedName>
+    <definedName name="_xlchart.v1.89" hidden="1">precisionRate_rf!$B$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">半導體!$B$1</definedName>
+    <definedName name="_xlchart.v1.90" hidden="1">precisionRate_rf!$B$2:$B$41</definedName>
+    <definedName name="_xlchart.v1.91" hidden="1">precisionRate_rf!$C$1</definedName>
+    <definedName name="_xlchart.v1.92" hidden="1">precisionRate_rf!$C$2:$C$41</definedName>
+    <definedName name="_xlchart.v1.93" hidden="1">precisionRate_rf!$G$1</definedName>
+    <definedName name="_xlchart.v1.94" hidden="1">precisionRate_rf!$G$2:$G$41</definedName>
+    <definedName name="_xlchart.v1.95" hidden="1">precisionRate_rf!$H$1</definedName>
+    <definedName name="_xlchart.v1.96" hidden="1">precisionRate_rf!$H$2:$H$41</definedName>
+    <definedName name="_xlchart.v1.97" hidden="1">precisionRate_rf!$I$2:$I$41</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1012,7 +1042,7 @@
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1102,6 +1132,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{7DFE72A2-7910-CF49-978F-B2D8070937AE}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>accuracy</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1152,6 +1183,318 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
+        <cx:f>_xlchart.v1.20</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.22</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.24</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.26</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.28</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Random Forest Classifier_半導體</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Random Forest Classifier_半導體</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{7F1F9634-360B-744D-AAB3-963B40636828}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.19</cx:f>
+              <cx:v>precision_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{805731DD-EA67-D845-A1CE-22477C4DC8FD}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.21</cx:f>
+              <cx:v>precision_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{33B8E7CF-18F8-684D-81AD-5559C73B48AA}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.23</cx:f>
+              <cx:v>recall_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{11D6FE98-06E2-DB4C-BB57-D815294E72FE}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.25</cx:f>
+              <cx:v>recall_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{8589B8D8-3589-3042-8D5D-97AEE75D3D90}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>accuracy</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1.5"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling min="0.60000000000000009"/>
+        <cx:majorGridlines/>
+        <cx:majorTickMarks type="out"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="r" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.50</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.52</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.54</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.56</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.58</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Random Forest Classifier_</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> 食品</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{6A01C0E8-8332-D341-86AB-FF6D0A5BFC1E}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>precision_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{83985816-F0D3-214C-99E1-566D75721552}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.51</cx:f>
+              <cx:v>precision_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{FD0DE5C4-ADED-2B41-8B1D-AFD5923833F4}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.53</cx:f>
+              <cx:v>recall_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{AA6E7103-A05D-EB46-8783-7F5A4E93CB1C}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.55</cx:f>
+              <cx:v>recall_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{75126095-C2DA-C14D-AC28-0CCDF0BE7C25}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>accuracy</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1.5"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling min="0.59999999999999998"/>
+        <cx:majorGridlines/>
+        <cx:majorTickMarks type="out"/>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="r" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
         <cx:f>_xlchart.v1.60</cx:f>
       </cx:numDim>
     </cx:data>
@@ -1172,7 +1515,351 @@
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.67</cx:f>
+        <cx:f>_xlchart.v1.68</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Random Forest Classifier_</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> 航運</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{68ECF783-71A8-2A4A-B4BF-AA9D56AF51A5}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.59</cx:f>
+              <cx:v>precision_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{7872304B-DF45-664A-9294-6FA8EFB33447}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.61</cx:f>
+              <cx:v>precision_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{B67256EF-D5BF-904F-9FB2-272E1A0354FF}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.63</cx:f>
+              <cx:v>recall_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{3CD9B6DC-6EEF-0446-B604-43F30C0E6DF1}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.65</cx:f>
+              <cx:v>recall_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{45B85D34-408B-D445-A2A2-17563E77A8CB}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>accuracy</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1.5"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling min="0.59999999999999998"/>
+        <cx:majorGridlines/>
+        <cx:majorTickMarks type="out"/>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="r" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx5.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.70</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.72</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.74</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.76</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.78</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Random Forest Classifier_</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> 通訊</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{E4E38505-5AA5-4243-B8D8-4306C4F9C1EC}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.69</cx:f>
+              <cx:v>precision_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{DE6FD666-3592-AB4F-8000-360F6A1A49B6}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.71</cx:f>
+              <cx:v>precision_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{BFB15431-1827-7F48-A08E-4BFD571BD998}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.73</cx:f>
+              <cx:v>recall_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{46862E74-6432-F843-84EF-F6D9EAB9937B}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.75</cx:f>
+              <cx:v>recall_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{C915F7AB-D7B2-B64D-ADA7-C0BF904AED93}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>accuracy</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1.5"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling min="0.5"/>
+        <cx:majorGridlines/>
+        <cx:majorTickMarks type="out"/>
+        <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="r" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx6.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.90</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.92</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.94</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.96</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.97</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1210,7 +1897,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{889E740F-DFC9-2C49-887F-4A1009FC5D69}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.59</cx:f>
+              <cx:f>_xlchart.v1.89</cx:f>
               <cx:v>precision_0</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1223,7 +1910,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{7DD3FBBB-BC73-AD47-BFF2-0BF2447C6D76}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.61</cx:f>
+              <cx:f>_xlchart.v1.91</cx:f>
               <cx:v>precision_1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1236,7 +1923,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{B7838ADE-79E2-2C45-86DD-0FA69F4B73B9}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.63</cx:f>
+              <cx:f>_xlchart.v1.93</cx:f>
               <cx:v>recall_0</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1249,7 +1936,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C54A250B-074B-6F45-98B5-84185D27C1E4}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.65</cx:f>
+              <cx:f>_xlchart.v1.95</cx:f>
               <cx:v>recall_1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1388,6 +2075,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
@@ -1904,6 +2751,2066 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2502,6 +5409,338 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>374650</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>234950</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD1023E2-AD88-F68C-2B58-8FFCA3B0C636}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6432550" y="4267200"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D39A6A69-02EA-C62A-0C9E-5BC3BDF174AF}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4521200" y="4267200"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63790E5D-B6E5-0F82-35A7-55ACB1067BB1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4521200" y="4267200"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F355EC5-E437-3460-62EC-3811D777F393}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4521200" y="4267200"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2881,6 +6120,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X47"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -6268,10 +9508,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:X17"/>
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7939,15 +11180,17 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:X17"/>
+      <selection activeCell="I1" activeCellId="5" sqref="H27 B1:B11 C1:C11 G1:G11 H1:H11 I1:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9615,15 +12858,17 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:X17"/>
+      <selection activeCell="I1" activeCellId="5" sqref="H27 B1:B11 C1:C11 G1:G11 H1:H11 I1:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11291,15 +14536,17 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:X17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:X17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12967,14 +16214,16 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>

--- a/final report/precisionRate_rf.xlsx
+++ b/final report/precisionRate_rf.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20386"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amanda/Documents/final Project/uki-uki-diasuki/final report/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FILE\中正\大數據與資料分析\uki-uki-diasuki\final report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6EB6C6-0F1C-B541-8BED-C1227E9EE624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC8B5C3-CA51-4915-AF2B-48AEFA1804CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="19780" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="19785" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="precisionRate_rf" sheetId="1" r:id="rId1"/>
@@ -23,102 +23,66 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">precisionRate_rf!$B$1</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">precisionRate_rf!$B$2:$B$41</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">半導體!$B$2:$B$11</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">半導體!$C$1</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">半導體!$C$2:$C$11</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">半導體!$G$1</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">半導體!$G$2:$G$11</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">半導體!$H$1</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">半導體!$H$2:$H$11</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">半導體!$I$1</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">半導體!$I$2:$I$11</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">半導體!$B$1</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">precisionRate_rf!$B$2:$B$41</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">precisionRate_rf!$C$1</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">precisionRate_rf!$C$2:$C$41</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">precisionRate_rf!$G$1</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">precisionRate_rf!$G$2:$G$41</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">precisionRate_rf!$H$1</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">precisionRate_rf!$H$2:$H$41</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">precisionRate_rf!$I$2:$I$41</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">半導體!$B$1</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">半導體!$B$2:$B$11</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">precisionRate_rf!$C$1</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">半導體!$B$2:$B$11</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">半導體!$C$1</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">半導體!$C$2:$C$11</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">半導體!$G$1</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">半導體!$G$2:$G$11</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">半導體!$H$1</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">半導體!$H$2:$H$11</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">半導體!$I$1</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">半導體!$I$2:$I$11</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">半導體!$B$1</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">半導體!$C$1</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">半導體!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">半導體!$G$1</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">半導體!$G$2:$G$11</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">半導體!$H$1</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">半導體!$H$2:$H$11</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">半導體!$I$2:$I$11</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">食品!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">食品!$C$1</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">食品!$C$2:$C$11</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">precisionRate_rf!$C$2:$C$41</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">半導體!$B$2:$B$11</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">半導體!$C$1</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">半導體!$C$2:$C$11</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">半導體!$G$1</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">半導體!$G$2:$G$11</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">半導體!$H$1</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">半導體!$H$2:$H$11</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">半導體!$I$1</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">半導體!$I$2:$I$11</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">半導體!$B$1</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">食品!$G$1</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">食品!$G$2:$G$11</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">食品!$H$1</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">食品!$H$2:$H$11</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">食品!$I$2:$I$11</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">航運!$B$1</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">航運!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">航運!$C$1</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">航運!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">航運!$G$1</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">precisionRate_rf!$G$1</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">半導體!$B$2:$B$11</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">半導體!$C$1</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">半導體!$C$2:$C$11</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">半導體!$G$1</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">半導體!$G$2:$G$11</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">半導體!$H$1</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">半導體!$H$2:$H$11</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">半導體!$I$1</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">半導體!$I$2:$I$11</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">食品!$B$1</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">航運!$G$2:$G$11</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">航運!$H$1</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">航運!$H$2:$H$11</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">航運!$I$2:$I$11</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">通訊!$B$1</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">通訊!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">通訊!$C$1</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">通訊!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">通訊!$G$1</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">通訊!$G$2:$G$11</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">precisionRate_rf!$G$2:$G$41</definedName>
-    <definedName name="_xlchart.v1.50" hidden="1">食品!$B$2:$B$11</definedName>
-    <definedName name="_xlchart.v1.51" hidden="1">食品!$C$1</definedName>
-    <definedName name="_xlchart.v1.52" hidden="1">食品!$C$2:$C$11</definedName>
-    <definedName name="_xlchart.v1.53" hidden="1">食品!$G$1</definedName>
-    <definedName name="_xlchart.v1.54" hidden="1">食品!$G$2:$G$11</definedName>
-    <definedName name="_xlchart.v1.55" hidden="1">食品!$H$1</definedName>
-    <definedName name="_xlchart.v1.56" hidden="1">食品!$H$2:$H$11</definedName>
-    <definedName name="_xlchart.v1.57" hidden="1">食品!$I$1</definedName>
-    <definedName name="_xlchart.v1.58" hidden="1">食品!$I$2:$I$11</definedName>
-    <definedName name="_xlchart.v1.59" hidden="1">航運!$B$1</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">通訊!$H$1</definedName>
+    <definedName name="_xlchart.v1.51" hidden="1">通訊!$H$2:$H$11</definedName>
+    <definedName name="_xlchart.v1.52" hidden="1">通訊!$I$2:$I$11</definedName>
+    <definedName name="_xlchart.v1.53" hidden="1">precisionRate_rf!$B$1</definedName>
+    <definedName name="_xlchart.v1.54" hidden="1">precisionRate_rf!$B$2:$B$41</definedName>
+    <definedName name="_xlchart.v1.55" hidden="1">precisionRate_rf!$C$1</definedName>
+    <definedName name="_xlchart.v1.56" hidden="1">precisionRate_rf!$C$2:$C$41</definedName>
+    <definedName name="_xlchart.v1.57" hidden="1">precisionRate_rf!$G$1</definedName>
+    <definedName name="_xlchart.v1.58" hidden="1">precisionRate_rf!$G$2:$G$41</definedName>
+    <definedName name="_xlchart.v1.59" hidden="1">precisionRate_rf!$H$1</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">precisionRate_rf!$H$1</definedName>
-    <definedName name="_xlchart.v1.60" hidden="1">航運!$B$2:$B$11</definedName>
-    <definedName name="_xlchart.v1.61" hidden="1">航運!$C$1</definedName>
-    <definedName name="_xlchart.v1.62" hidden="1">航運!$C$2:$C$11</definedName>
-    <definedName name="_xlchart.v1.63" hidden="1">航運!$G$1</definedName>
-    <definedName name="_xlchart.v1.64" hidden="1">航運!$G$2:$G$11</definedName>
-    <definedName name="_xlchart.v1.65" hidden="1">航運!$H$1</definedName>
-    <definedName name="_xlchart.v1.66" hidden="1">航運!$H$2:$H$11</definedName>
-    <definedName name="_xlchart.v1.67" hidden="1">航運!$I$1</definedName>
-    <definedName name="_xlchart.v1.68" hidden="1">航運!$I$2:$I$11</definedName>
-    <definedName name="_xlchart.v1.69" hidden="1">通訊!$B$1</definedName>
+    <definedName name="_xlchart.v1.60" hidden="1">precisionRate_rf!$H$2:$H$41</definedName>
+    <definedName name="_xlchart.v1.61" hidden="1">precisionRate_rf!$I$2:$I$41</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">precisionRate_rf!$H$2:$H$41</definedName>
-    <definedName name="_xlchart.v1.70" hidden="1">通訊!$B$2:$B$11</definedName>
-    <definedName name="_xlchart.v1.71" hidden="1">通訊!$C$1</definedName>
-    <definedName name="_xlchart.v1.72" hidden="1">通訊!$C$2:$C$11</definedName>
-    <definedName name="_xlchart.v1.73" hidden="1">通訊!$G$1</definedName>
-    <definedName name="_xlchart.v1.74" hidden="1">通訊!$G$2:$G$11</definedName>
-    <definedName name="_xlchart.v1.75" hidden="1">通訊!$H$1</definedName>
-    <definedName name="_xlchart.v1.76" hidden="1">通訊!$H$2:$H$11</definedName>
-    <definedName name="_xlchart.v1.77" hidden="1">通訊!$I$1</definedName>
-    <definedName name="_xlchart.v1.78" hidden="1">通訊!$I$2:$I$11</definedName>
-    <definedName name="_xlchart.v1.79" hidden="1">通訊!$B$1</definedName>
     <definedName name="_xlchart.v1.8" hidden="1">precisionRate_rf!$I$2:$I$41</definedName>
-    <definedName name="_xlchart.v1.80" hidden="1">通訊!$B$2:$B$11</definedName>
-    <definedName name="_xlchart.v1.81" hidden="1">通訊!$C$1</definedName>
-    <definedName name="_xlchart.v1.82" hidden="1">通訊!$C$2:$C$11</definedName>
-    <definedName name="_xlchart.v1.83" hidden="1">通訊!$G$1</definedName>
-    <definedName name="_xlchart.v1.84" hidden="1">通訊!$G$2:$G$11</definedName>
-    <definedName name="_xlchart.v1.85" hidden="1">通訊!$H$1</definedName>
-    <definedName name="_xlchart.v1.86" hidden="1">通訊!$H$2:$H$11</definedName>
-    <definedName name="_xlchart.v1.87" hidden="1">通訊!$I$1</definedName>
-    <definedName name="_xlchart.v1.88" hidden="1">通訊!$I$2:$I$11</definedName>
-    <definedName name="_xlchart.v1.89" hidden="1">precisionRate_rf!$B$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">半導體!$B$1</definedName>
-    <definedName name="_xlchart.v1.90" hidden="1">precisionRate_rf!$B$2:$B$41</definedName>
-    <definedName name="_xlchart.v1.91" hidden="1">precisionRate_rf!$C$1</definedName>
-    <definedName name="_xlchart.v1.92" hidden="1">precisionRate_rf!$C$2:$C$41</definedName>
-    <definedName name="_xlchart.v1.93" hidden="1">precisionRate_rf!$G$1</definedName>
-    <definedName name="_xlchart.v1.94" hidden="1">precisionRate_rf!$G$2:$G$41</definedName>
-    <definedName name="_xlchart.v1.95" hidden="1">precisionRate_rf!$H$1</definedName>
-    <definedName name="_xlchart.v1.96" hidden="1">precisionRate_rf!$H$2:$H$41</definedName>
-    <definedName name="_xlchart.v1.97" hidden="1">precisionRate_rf!$I$2:$I$41</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">precisionRate_rf!$B$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -128,8 +92,8 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -301,7 +265,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -309,7 +273,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -317,7 +281,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri Light"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="major"/>
@@ -326,7 +290,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -335,7 +299,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -344,7 +308,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -352,7 +316,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -360,7 +324,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -368,7 +332,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -376,7 +340,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -385,7 +349,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -394,7 +358,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -402,7 +366,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -411,7 +375,7 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -419,7 +383,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -428,7 +392,7 @@
       <i/>
       <sz val="12"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -437,7 +401,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -445,14 +409,14 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -460,7 +424,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF1E1E1E"/>
-      <name val="Calibri Light"/>
+      <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="major"/>
@@ -961,48 +925,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="20% - 輔色1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 輔色2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 輔色3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 輔色4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 輔色5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 輔色6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 輔色1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 輔色2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 輔色3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 輔色4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 輔色5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 輔色6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 輔色1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 輔色2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 輔色3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 輔色4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 輔色5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 輔色6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="中等" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="合計" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="計算方式" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="連結的儲存格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="備註" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="說明文字" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="輔色1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="輔色2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="輔色3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="輔色4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="輔色5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="輔色6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="標題" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="標題 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="標題 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="標題 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="標題 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="輸入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="輸出" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="檢查儲存格" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="壞" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="警告文字" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1015,6 +979,669 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>Ranfom Forest Classifier</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>統整!$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>半導體</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>統整!$B$26:$F$26</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>q0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>q1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>q2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>q3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>q4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>統整!$B$27:$F$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.80338983050847401</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.81817710134901356</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.85740804796494796</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.88305084745762674</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89152542372881305</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7B83-43BC-A4FC-4A49F706AD40}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>統整!$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>食品</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>統整!$B$26:$F$26</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>q0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>q1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>q2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>q3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>q4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>統整!$B$28:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.77288135593220297</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.80593220338983051</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83220338983050801</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85264360502111347</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.86779661016949095</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7B83-43BC-A4FC-4A49F706AD40}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>統整!$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>航運</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>統整!$B$26:$F$26</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>q0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>q1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>q2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>q3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>q4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>統整!$B$29:$F$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.76377952755905498</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.82182203389830444</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8428464606181455</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.86236596333448579</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.88095238095238004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7B83-43BC-A4FC-4A49F706AD40}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>統整!$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>通訊</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>統整!$B$26:$F$26</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>q0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>q1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>q2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>q3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>q4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>統整!$B$30:$F$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.72945205479452002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77534246575342403</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8289375775113681</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8652834599649325</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89152542372881305</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7B83-43BC-A4FC-4A49F706AD40}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="534484800"/>
+        <c:axId val="390865056"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="534484800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="390865056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="390865056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.9"/>
+          <c:min val="0.71000000000000008"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="534484800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
 </file>
 
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1144,7 +1771,7 @@
         </cx:series>
       </cx:plotAreaRegion>
       <cx:axis id="0">
-        <cx:catScaling gapWidth="1.5"/>
+        <cx:catScaling gapWidth="0.200000003"/>
         <cx:tickLabels/>
       </cx:axis>
       <cx:axis id="1">
@@ -1183,27 +1810,27 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.20</cx:f>
+        <cx:f>_xlchart.v1.19</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.22</cx:f>
+        <cx:f>_xlchart.v1.21</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.24</cx:f>
+        <cx:f>_xlchart.v1.23</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.26</cx:f>
+        <cx:f>_xlchart.v1.25</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.28</cx:f>
+        <cx:f>_xlchart.v1.26</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1241,7 +1868,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{7F1F9634-360B-744D-AAB3-963B40636828}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.19</cx:f>
+              <cx:f>_xlchart.v1.18</cx:f>
               <cx:v>precision_0</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1254,7 +1881,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{805731DD-EA67-D845-A1CE-22477C4DC8FD}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.21</cx:f>
+              <cx:f>_xlchart.v1.20</cx:f>
               <cx:v>precision_1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1267,7 +1894,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{33B8E7CF-18F8-684D-81AD-5559C73B48AA}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.23</cx:f>
+              <cx:f>_xlchart.v1.22</cx:f>
               <cx:v>recall_0</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1280,7 +1907,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{11D6FE98-06E2-DB4C-BB57-D815294E72FE}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.25</cx:f>
+              <cx:f>_xlchart.v1.24</cx:f>
               <cx:v>recall_1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1293,6 +1920,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{8589B8D8-3589-3042-8D5D-97AEE75D3D90}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>accuracy</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1324,27 +1952,27 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.50</cx:f>
+        <cx:f>_xlchart.v1.27</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.52</cx:f>
+        <cx:f>_xlchart.v1.29</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.54</cx:f>
+        <cx:f>_xlchart.v1.31</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.56</cx:f>
+        <cx:f>_xlchart.v1.33</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.58</cx:f>
+        <cx:f>_xlchart.v1.34</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1395,6 +2023,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{6A01C0E8-8332-D341-86AB-FF6D0A5BFC1E}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>precision_0</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1407,7 +2036,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{83985816-F0D3-214C-99E1-566D75721552}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.51</cx:f>
+              <cx:f>_xlchart.v1.28</cx:f>
               <cx:v>precision_1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1420,7 +2049,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{FD0DE5C4-ADED-2B41-8B1D-AFD5923833F4}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.53</cx:f>
+              <cx:f>_xlchart.v1.30</cx:f>
               <cx:v>recall_0</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1433,7 +2062,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{AA6E7103-A05D-EB46-8783-7F5A4E93CB1C}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.55</cx:f>
+              <cx:f>_xlchart.v1.32</cx:f>
               <cx:v>recall_1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1446,6 +2075,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{75126095-C2DA-C14D-AC28-0CCDF0BE7C25}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>accuracy</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1495,27 +2125,27 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.60</cx:f>
+        <cx:f>_xlchart.v1.36</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.62</cx:f>
+        <cx:f>_xlchart.v1.38</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.64</cx:f>
+        <cx:f>_xlchart.v1.40</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.66</cx:f>
+        <cx:f>_xlchart.v1.42</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.68</cx:f>
+        <cx:f>_xlchart.v1.43</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1566,7 +2196,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{68ECF783-71A8-2A4A-B4BF-AA9D56AF51A5}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.59</cx:f>
+              <cx:f>_xlchart.v1.35</cx:f>
               <cx:v>precision_0</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1579,7 +2209,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{7872304B-DF45-664A-9294-6FA8EFB33447}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.61</cx:f>
+              <cx:f>_xlchart.v1.37</cx:f>
               <cx:v>precision_1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1592,7 +2222,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{B67256EF-D5BF-904F-9FB2-272E1A0354FF}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.63</cx:f>
+              <cx:f>_xlchart.v1.39</cx:f>
               <cx:v>recall_0</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1605,7 +2235,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{3CD9B6DC-6EEF-0446-B604-43F30C0E6DF1}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.65</cx:f>
+              <cx:f>_xlchart.v1.41</cx:f>
               <cx:v>recall_1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1618,6 +2248,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{45B85D34-408B-D445-A2A2-17563E77A8CB}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>accuracy</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1667,27 +2298,27 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.70</cx:f>
+        <cx:f>_xlchart.v1.45</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.72</cx:f>
+        <cx:f>_xlchart.v1.47</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.74</cx:f>
+        <cx:f>_xlchart.v1.49</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.76</cx:f>
+        <cx:f>_xlchart.v1.51</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.78</cx:f>
+        <cx:f>_xlchart.v1.52</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1738,7 +2369,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{E4E38505-5AA5-4243-B8D8-4306C4F9C1EC}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.69</cx:f>
+              <cx:f>_xlchart.v1.44</cx:f>
               <cx:v>precision_0</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1751,7 +2382,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{DE6FD666-3592-AB4F-8000-360F6A1A49B6}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.71</cx:f>
+              <cx:f>_xlchart.v1.46</cx:f>
               <cx:v>precision_1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1764,7 +2395,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{BFB15431-1827-7F48-A08E-4BFD571BD998}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.73</cx:f>
+              <cx:f>_xlchart.v1.48</cx:f>
               <cx:v>recall_0</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1777,7 +2408,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{46862E74-6432-F843-84EF-F6D9EAB9937B}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.75</cx:f>
+              <cx:f>_xlchart.v1.50</cx:f>
               <cx:v>recall_1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1790,6 +2421,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C915F7AB-D7B2-B64D-ADA7-C0BF904AED93}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>accuracy</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1839,27 +2471,27 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.90</cx:f>
+        <cx:f>_xlchart.v1.54</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.92</cx:f>
+        <cx:f>_xlchart.v1.56</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.94</cx:f>
+        <cx:f>_xlchart.v1.58</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.96</cx:f>
+        <cx:f>_xlchart.v1.60</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.97</cx:f>
+        <cx:f>_xlchart.v1.61</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1897,7 +2529,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{889E740F-DFC9-2C49-887F-4A1009FC5D69}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.89</cx:f>
+              <cx:f>_xlchart.v1.53</cx:f>
               <cx:v>precision_0</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1910,7 +2542,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{7DD3FBBB-BC73-AD47-BFF2-0BF2447C6D76}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.91</cx:f>
+              <cx:f>_xlchart.v1.55</cx:f>
               <cx:v>precision_1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1923,7 +2555,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{B7838ADE-79E2-2C45-86DD-0FA69F4B73B9}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.93</cx:f>
+              <cx:f>_xlchart.v1.57</cx:f>
               <cx:v>recall_0</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1936,7 +2568,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C54A250B-074B-6F45-98B5-84185D27C1E4}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.95</cx:f>
+              <cx:f>_xlchart.v1.59</cx:f>
               <cx:v>recall_1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2235,6 +2867,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
@@ -5325,20 +5997,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -5374,8 +6562,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4210050" y="9436100"/>
-              <a:ext cx="5149850" cy="3175000"/>
+              <a:off x="4133850" y="10842625"/>
+              <a:ext cx="5172075" cy="3276600"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5394,9 +6582,9 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+                <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+                <a:t>此圖表在您的 Excel 版本中無法使用。
+若編輯此圖案或將此活頁簿儲存為不同格式，將永久破壞圖表。</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -5457,8 +6645,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6432550" y="4267200"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="6461125" y="4400550"/>
+              <a:ext cx="4594225" cy="2825750"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5477,9 +6665,9 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+                <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+                <a:t>此圖表在您的 Excel 版本中無法使用。
+若編輯此圖案或將此活頁簿儲存為不同格式，將永久破壞圖表。</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -5540,8 +6728,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4521200" y="4267200"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="4540250" y="4400550"/>
+              <a:ext cx="4594225" cy="2825750"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5560,9 +6748,9 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+                <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+                <a:t>此圖表在您的 Excel 版本中無法使用。
+若編輯此圖案或將此活頁簿儲存為不同格式，將永久破壞圖表。</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -5623,8 +6811,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4521200" y="4267200"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="4540250" y="4400550"/>
+              <a:ext cx="4594225" cy="2825750"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5643,9 +6831,9 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+                <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+                <a:t>此圖表在您的 Excel 版本中無法使用。
+若編輯此圖案或將此活頁簿儲存為不同格式，將永久破壞圖表。</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -5706,8 +6894,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4521200" y="4267200"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="4540250" y="4400550"/>
+              <a:ext cx="4594225" cy="2825750"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5726,9 +6914,9 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+                <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+                <a:t>此圖表在您的 Excel 版本中無法使用。
+若編輯此圖案或將此活頁簿儲存為不同格式，將永久破壞圖表。</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -5789,8 +6977,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5384800" y="1955800"/>
-              <a:ext cx="5149850" cy="3175000"/>
+              <a:off x="5410200" y="2012950"/>
+              <a:ext cx="5172075" cy="3276600"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5809,9 +6997,9 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+                <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+                <a:t>此圖表在您的 Excel 版本中無法使用。
+若編輯此圖案或將此活頁簿儲存為不同格式，將永久破壞圖表。</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -5820,11 +7008,47 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B917300-7A20-4515-A313-E6E9B24E1160}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6123,13 +7347,13 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X47"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I1" activeCellId="4" sqref="B1:B41 C1:C41 G1:G41 H1:H41 I1:I41"/>
+    <sheetView topLeftCell="C49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q57" sqref="Q57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6197,7 +7421,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1210</v>
       </c>
@@ -6265,7 +7489,7 @@
         <v>0.73854154614624801</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1231</v>
       </c>
@@ -6333,7 +7557,7 @@
         <v>0.48697852617807003</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2344</v>
       </c>
@@ -6401,7 +7625,7 @@
         <v>0.673568977544175</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2449</v>
       </c>
@@ -6469,7 +7693,7 @@
         <v>0.76219833478156096</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2603</v>
       </c>
@@ -6537,7 +7761,7 @@
         <v>0.70818596345067397</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2633</v>
       </c>
@@ -6605,7 +7829,7 @@
         <v>0.52555604753635998</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3596</v>
       </c>
@@ -6673,7 +7897,7 @@
         <v>0.70373736451798397</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1215</v>
       </c>
@@ -6741,7 +7965,7 @@
         <v>0.64412883865288395</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1232</v>
       </c>
@@ -6809,7 +8033,7 @@
         <v>0.64306736949923904</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2345</v>
       </c>
@@ -6877,7 +8101,7 @@
         <v>0.74525785532306699</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2454</v>
       </c>
@@ -6945,7 +8169,7 @@
         <v>0.60479802487559797</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2607</v>
       </c>
@@ -7013,7 +8237,7 @@
         <v>0.70185437273496498</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2634</v>
       </c>
@@ -7081,7 +8305,7 @@
         <v>0.64793797881779103</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3682</v>
       </c>
@@ -7149,7 +8373,7 @@
         <v>0.65919189978844595</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1216</v>
       </c>
@@ -7217,7 +8441,7 @@
         <v>0.55829877679888595</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1434</v>
       </c>
@@ -7285,7 +8509,7 @@
         <v>0.70599258655024799</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2379</v>
       </c>
@@ -7353,7 +8577,7 @@
         <v>0.73942833288102605</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2455</v>
       </c>
@@ -7421,7 +8645,7 @@
         <v>0.73504050173044899</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2609</v>
       </c>
@@ -7489,7 +8713,7 @@
         <v>0.74706093321013001</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2637</v>
       </c>
@@ -7557,7 +8781,7 @@
         <v>0.67626906318911795</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>4904</v>
       </c>
@@ -7625,7 +8849,7 @@
         <v>0.48880097302019998</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1218</v>
       </c>
@@ -7693,7 +8917,7 @@
         <v>0.71449526513311901</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1702</v>
       </c>
@@ -7761,7 +8985,7 @@
         <v>0.70456346589649999</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2408</v>
       </c>
@@ -7829,7 +9053,7 @@
         <v>0.775710446018683</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2459</v>
       </c>
@@ -7897,7 +9121,7 @@
         <v>0.72335033559472905</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2610</v>
       </c>
@@ -7965,7 +9189,7 @@
         <v>0.69816005768796996</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3034</v>
       </c>
@@ -8033,7 +9257,7 @@
         <v>0.75392789138939498</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>5388</v>
       </c>
@@ -8101,7 +9325,7 @@
         <v>0.78471123414366395</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1227</v>
       </c>
@@ -8169,7 +9393,7 @@
         <v>0.61642376600017001</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2330</v>
       </c>
@@ -8237,7 +9461,7 @@
         <v>0.65313688487580002</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2412</v>
       </c>
@@ -8305,7 +9529,7 @@
         <v>0.43666969334105898</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2468</v>
       </c>
@@ -8373,7 +9597,7 @@
         <v>0.59946502217191</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2615</v>
       </c>
@@ -8441,7 +9665,7 @@
         <v>0.70192203708020795</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3035</v>
       </c>
@@ -8509,7 +9733,7 @@
         <v>0.70926371724684001</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1229</v>
       </c>
@@ -8577,7 +9801,7 @@
         <v>0.677917403738173</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2337</v>
       </c>
@@ -8645,7 +9869,7 @@
         <v>0.63877943081213095</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2439</v>
       </c>
@@ -8713,7 +9937,7 @@
         <v>0.60997834111660298</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2498</v>
       </c>
@@ -8781,7 +10005,7 @@
         <v>0.60525904688785903</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2618</v>
       </c>
@@ -8849,7 +10073,7 @@
         <v>0.61585827168128204</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3045</v>
       </c>
@@ -8917,7 +10141,7 @@
         <v>0.53095469151563401</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>22</v>
       </c>
@@ -9014,7 +10238,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>23</v>
       </c>
@@ -9111,7 +10335,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>24</v>
       </c>
@@ -9208,7 +10432,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>25</v>
       </c>
@@ -9305,7 +10529,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>26</v>
       </c>
@@ -9402,7 +10626,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>27</v>
       </c>
@@ -9515,9 +10739,9 @@
       <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>precisionRate_rf!A$1</f>
         <v>StockName</v>
@@ -9615,7 +10839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>precisionRate_rf!A$31</f>
         <v>2330</v>
@@ -9713,7 +10937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>precisionRate_rf!A$12</f>
         <v>2454</v>
@@ -9811,7 +11035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>precisionRate_rf!A$28</f>
         <v>3034</v>
@@ -9909,7 +11133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>precisionRate_rf!A$18</f>
         <v>2379</v>
@@ -10007,7 +11231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>precisionRate_rf!A$25</f>
         <v>2408</v>
@@ -10105,7 +11329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>precisionRate_rf!A$4</f>
         <v>2344</v>
@@ -10203,7 +11427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>precisionRate_rf!A$37</f>
         <v>2337</v>
@@ -10301,7 +11525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>precisionRate_rf!A$35</f>
         <v>3035</v>
@@ -10399,7 +11623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>precisionRate_rf!A$5</f>
         <v>2449</v>
@@ -10497,7 +11721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>precisionRate_rf!A$33</f>
         <v>2468</v>
@@ -10595,7 +11819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -10692,7 +11916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
@@ -10789,7 +12013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
@@ -10886,7 +12110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
@@ -10983,7 +12207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
@@ -11080,7 +12304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
@@ -11193,9 +12417,9 @@
       <selection activeCell="I1" activeCellId="5" sqref="H27 B1:B11 C1:C11 G1:G11 H1:H11 I1:I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>precisionRate_rf!A$1</f>
         <v>StockName</v>
@@ -11293,7 +12517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>precisionRate_rf!A$16</f>
         <v>1216</v>
@@ -11391,7 +12615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>precisionRate_rf!A$36</f>
         <v>1229</v>
@@ -11489,7 +12713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>precisionRate_rf!A$17</f>
         <v>1434</v>
@@ -11587,7 +12811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>precisionRate_rf!A$30</f>
         <v>1227</v>
@@ -11685,7 +12909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>precisionRate_rf!A$2</f>
         <v>1210</v>
@@ -11783,7 +13007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>precisionRate_rf!A$10</f>
         <v>1232</v>
@@ -11881,7 +13105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>precisionRate_rf!A$9</f>
         <v>1215</v>
@@ -11979,7 +13203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>precisionRate_rf!A$3</f>
         <v>1231</v>
@@ -12077,7 +13301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>precisionRate_rf!A$23</f>
         <v>1218</v>
@@ -12175,7 +13399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>precisionRate_rf!A$24</f>
         <v>1702</v>
@@ -12273,7 +13497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -12370,7 +13594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
@@ -12467,7 +13691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
@@ -12564,7 +13788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
@@ -12661,7 +13885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
@@ -12758,7 +13982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
@@ -12871,9 +14095,9 @@
       <selection activeCell="I1" activeCellId="5" sqref="H27 B1:B11 C1:C11 G1:G11 H1:H11 I1:I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>precisionRate_rf!A$1</f>
         <v>StockName</v>
@@ -12971,7 +14195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>precisionRate_rf!A$6</f>
         <v>2603</v>
@@ -13069,7 +14293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>precisionRate_rf!A$20</f>
         <v>2609</v>
@@ -13167,7 +14391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>precisionRate_rf!A$34</f>
         <v>2615</v>
@@ -13265,7 +14489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>precisionRate_rf!A$40</f>
         <v>2618</v>
@@ -13363,7 +14587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>precisionRate_rf!A$27</f>
         <v>2610</v>
@@ -13461,7 +14685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>precisionRate_rf!A$21</f>
         <v>2637</v>
@@ -13559,7 +14783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>precisionRate_rf!A$7</f>
         <v>2633</v>
@@ -13657,7 +14881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>precisionRate_rf!A$26</f>
         <v>2459</v>
@@ -13755,7 +14979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>precisionRate_rf!A$13</f>
         <v>2607</v>
@@ -13853,7 +15077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>precisionRate_rf!A$14</f>
         <v>2634</v>
@@ -13951,7 +15175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -14048,7 +15272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
@@ -14145,7 +15369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
@@ -14242,7 +15466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
@@ -14339,7 +15563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
@@ -14436,7 +15660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
@@ -14545,13 +15769,13 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:X17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>precisionRate_rf!A$1</f>
         <v>StockName</v>
@@ -14649,7 +15873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>precisionRate_rf!A$32</f>
         <v>2412</v>
@@ -14747,7 +15971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>precisionRate_rf!A$41</f>
         <v>3045</v>
@@ -14845,7 +16069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>precisionRate_rf!A$22</f>
         <v>4904</v>
@@ -14943,7 +16167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>precisionRate_rf!A$11</f>
         <v>2345</v>
@@ -15041,7 +16265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>precisionRate_rf!A$39</f>
         <v>2498</v>
@@ -15139,7 +16363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>precisionRate_rf!A$8</f>
         <v>3596</v>
@@ -15237,7 +16461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>precisionRate_rf!A$15</f>
         <v>3682</v>
@@ -15335,7 +16559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>precisionRate_rf!A$29</f>
         <v>5388</v>
@@ -15433,7 +16657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>precisionRate_rf!A$19</f>
         <v>2455</v>
@@ -15531,7 +16755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>precisionRate_rf!A$38</f>
         <v>2439</v>
@@ -15629,7 +16853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -15726,7 +16950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
@@ -15823,7 +17047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
@@ -15920,7 +17144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
@@ -16017,7 +17241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>26</v>
       </c>
@@ -16114,7 +17338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
@@ -16223,13 +17447,13 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
@@ -16258,7 +17482,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>36</v>
@@ -16303,7 +17527,7 @@
         <v>0.43666969334105898</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>39</v>
       </c>
@@ -16355,7 +17579,7 @@
         <v>0.61438828904011222</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>40</v>
       </c>
@@ -16407,7 +17631,7 @@
         <v>0.67709323346364547</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>41</v>
       </c>
@@ -16459,7 +17683,7 @@
         <v>0.71670903274852149</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>42</v>
       </c>
@@ -16511,7 +17735,7 @@
         <v>0.78471123414366395</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>43</v>
       </c>
@@ -16523,7 +17747,7 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
         <v>36</v>
@@ -16541,7 +17765,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>39</v>
       </c>
@@ -16566,7 +17790,7 @@
         <v>0.93121693121693105</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>40</v>
       </c>
@@ -16591,7 +17815,7 @@
         <v>0.94512195121951204</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>41</v>
       </c>
@@ -16616,7 +17840,7 @@
         <v>0.95744680851063801</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>42</v>
       </c>
@@ -16641,7 +17865,7 @@
         <v>0.86666666666666603</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>32</v>
       </c>
@@ -16651,7 +17875,7 @@
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
         <v>36</v>
@@ -16669,7 +17893,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>39</v>
       </c>
@@ -16694,7 +17918,7 @@
         <v>0.89928057553956797</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>40</v>
       </c>
@@ -16719,7 +17943,7 @@
         <v>0.91089108910891003</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>41</v>
       </c>
@@ -16744,7 +17968,7 @@
         <v>0.94915254237288105</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>42</v>
       </c>
@@ -16769,7 +17993,7 @@
         <v>0.90677966101694896</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>33</v>
       </c>
@@ -16779,7 +18003,7 @@
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
         <v>36</v>
@@ -16797,7 +18021,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>39</v>
       </c>
@@ -16822,7 +18046,7 @@
         <v>0.91256830601092898</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>40</v>
       </c>
@@ -16847,7 +18071,7 @@
         <v>0.88793103448275801</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>41</v>
       </c>
@@ -16872,7 +18096,7 @@
         <v>0.92500000000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>42</v>
       </c>
@@ -16897,7 +18121,7 @@
         <v>0.934640522875817</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>34</v>
       </c>
@@ -16907,7 +18131,7 @@
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
         <v>36</v>
@@ -16925,7 +18149,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>39</v>
       </c>
@@ -16950,7 +18174,7 @@
         <v>0.89152542372881305</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>40</v>
       </c>
@@ -16975,7 +18199,7 @@
         <v>0.86779661016949095</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>41</v>
       </c>
@@ -17000,7 +18224,7 @@
         <v>0.88095238095238004</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>42</v>
       </c>
